--- a/成长伤害公式.xlsx
+++ b/成长伤害公式.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="22320" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="18040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>P1内功</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -77,19 +77,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>E1伤害队列</t>
+    <t>外功下限比例</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>P1伤害队列</t>
+    <t>外功上限比例</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>P1剩余气血</t>
+    <t>内功下限比例</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>E1剩余气血</t>
+    <t>内功上限比例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避概率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -158,7 +162,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -206,12 +210,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="63">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -235,6 +256,14 @@
     <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -258,6 +287,14 @@
     <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -587,29 +624,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L8"/>
+  <dimension ref="A1:L100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="1:12">
+      <c r="C1">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>70</v>
+      </c>
+      <c r="D1">
+        <f ca="1">B3-J1</f>
+        <v>952</v>
+      </c>
+      <c r="I1">
+        <f ca="1">K3-C1</f>
+        <v>930</v>
+      </c>
+      <c r="J1">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>48</v>
+      </c>
+    </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>14</v>
+      <c r="C2" s="2">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>68</v>
+      </c>
+      <c r="D2">
+        <f ca="1">D1-J2</f>
+        <v>903</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I33" ca="1" si="0">I1-C2</f>
+        <v>862</v>
+      </c>
+      <c r="J2">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>49</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>13</v>
@@ -623,12 +685,20 @@
         <v>1000</v>
       </c>
       <c r="C3">
-        <f>INT(B4*B4/(B4+K5))</f>
-        <v>66</v>
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>69</v>
       </c>
       <c r="D3">
-        <f>B3-C3</f>
-        <v>934</v>
+        <f t="shared" ref="D3:D66" ca="1" si="1">D2-J3</f>
+        <v>855</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ca="1" si="0"/>
+        <v>793</v>
+      </c>
+      <c r="J3">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>48</v>
       </c>
       <c r="K3">
         <v>1000</v>
@@ -645,12 +715,20 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <f>INT(B4*B4/(B4+K5))</f>
-        <v>66</v>
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>64</v>
       </c>
       <c r="D4">
-        <f>D3-C4</f>
-        <v>868</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>803</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ca="1" si="0"/>
+        <v>729</v>
+      </c>
+      <c r="J4">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>52</v>
       </c>
       <c r="K4">
         <v>100</v>
@@ -664,7 +742,23 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>50</v>
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>69</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="1"/>
+        <v>755</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ca="1" si="0"/>
+        <v>660</v>
+      </c>
+      <c r="J5">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>48</v>
       </c>
       <c r="K5">
         <v>50</v>
@@ -680,6 +774,22 @@
       <c r="B6">
         <v>100</v>
       </c>
+      <c r="C6">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>69</v>
+      </c>
+      <c r="D6">
+        <f ca="1">D5-J6</f>
+        <v>704</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ca="1" si="0"/>
+        <v>591</v>
+      </c>
+      <c r="J6">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>51</v>
+      </c>
       <c r="K6">
         <v>100</v>
       </c>
@@ -694,6 +804,22 @@
       <c r="B7">
         <v>50</v>
       </c>
+      <c r="C7">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>67</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="1"/>
+        <v>654</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ca="1" si="0"/>
+        <v>524</v>
+      </c>
+      <c r="J7">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>50</v>
+      </c>
       <c r="K7">
         <v>50</v>
       </c>
@@ -706,13 +832,1712 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>25</v>
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>64</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="1"/>
+        <v>606</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ca="1" si="0"/>
+        <v>460</v>
+      </c>
+      <c r="J8">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>48</v>
       </c>
       <c r="K8">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L8" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="C9">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>63</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="1"/>
+        <v>554</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ca="1" si="0"/>
+        <v>397</v>
+      </c>
+      <c r="J9">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>95</v>
+      </c>
+      <c r="C10">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>64</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="1"/>
+        <v>502</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ca="1" si="0"/>
+        <v>333</v>
+      </c>
+      <c r="J10">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>105</v>
+      </c>
+      <c r="C11">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>63</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="1"/>
+        <v>453</v>
+      </c>
+      <c r="I11">
+        <f t="shared" ca="1" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="J11">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>95</v>
+      </c>
+      <c r="C12">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>66</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="1"/>
+        <v>401</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ca="1" si="0"/>
+        <v>204</v>
+      </c>
+      <c r="J12">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>105</v>
+      </c>
+      <c r="C13">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>66</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ca="1" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="J13">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>66</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="1"/>
+        <v>299</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ca="1" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="J14">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="C15">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>68</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="C16">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>65</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="1"/>
+        <v>199</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ca="1" si="0"/>
+        <v>-61</v>
+      </c>
+      <c r="J16">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10">
+      <c r="C17">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>66</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="1"/>
+        <v>151</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ca="1" si="0"/>
+        <v>-127</v>
+      </c>
+      <c r="J17">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10">
+      <c r="C18">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>68</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ca="1" si="0"/>
+        <v>-195</v>
+      </c>
+      <c r="J18">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10">
+      <c r="C19">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>68</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ca="1" si="0"/>
+        <v>-263</v>
+      </c>
+      <c r="J19">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10">
+      <c r="C20">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>68</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <f t="shared" ca="1" si="0"/>
+        <v>-331</v>
+      </c>
+      <c r="J20">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10">
+      <c r="C21">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>68</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="1"/>
+        <v>-50</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-399</v>
+      </c>
+      <c r="J21">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10">
+      <c r="C22">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>70</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="1"/>
+        <v>-102</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ca="1" si="0"/>
+        <v>-469</v>
+      </c>
+      <c r="J22">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10">
+      <c r="C23">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>70</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="1"/>
+        <v>-153</v>
+      </c>
+      <c r="I23">
+        <f t="shared" ca="1" si="0"/>
+        <v>-539</v>
+      </c>
+      <c r="J23">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10">
+      <c r="C24">
+        <f ca="1">INT(RANDBETWEEN(95,105)*0.01 * (B4*B4/(B4+K5)))</f>
+        <v>64</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="1"/>
+        <v>-201</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ca="1" si="0"/>
+        <v>-603</v>
+      </c>
+      <c r="J24">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10">
+      <c r="C25">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>63</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="1"/>
+        <v>-250</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ca="1" si="0"/>
+        <v>-666</v>
+      </c>
+      <c r="J25">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10">
+      <c r="C26">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>66</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="1"/>
+        <v>-250</v>
+      </c>
+      <c r="I26">
+        <f t="shared" ca="1" si="0"/>
+        <v>-732</v>
+      </c>
+      <c r="J26">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10">
+      <c r="C27">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>66</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="1"/>
+        <v>-300</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ca="1" si="0"/>
+        <v>-798</v>
+      </c>
+      <c r="J27">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10">
+      <c r="C28">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>68</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="1"/>
+        <v>-348</v>
+      </c>
+      <c r="I28">
+        <f t="shared" ca="1" si="0"/>
+        <v>-866</v>
+      </c>
+      <c r="J28">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10">
+      <c r="C29">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>65</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="1"/>
+        <v>-400</v>
+      </c>
+      <c r="I29">
+        <f t="shared" ca="1" si="0"/>
+        <v>-931</v>
+      </c>
+      <c r="J29">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10">
+      <c r="C30">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>64</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="1"/>
+        <v>-450</v>
+      </c>
+      <c r="I30">
+        <f t="shared" ca="1" si="0"/>
+        <v>-995</v>
+      </c>
+      <c r="J30">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10">
+      <c r="C31">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>67</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-502</v>
+      </c>
+      <c r="I31">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1062</v>
+      </c>
+      <c r="J31">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10">
+      <c r="C32">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>64</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="1"/>
+        <v>-553</v>
+      </c>
+      <c r="I32">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1126</v>
+      </c>
+      <c r="J32">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10">
+      <c r="C33">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>65</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="1"/>
+        <v>-605</v>
+      </c>
+      <c r="I33">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1191</v>
+      </c>
+      <c r="J33">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10">
+      <c r="C34">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>63</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="1"/>
+        <v>-655</v>
+      </c>
+      <c r="I34">
+        <f t="shared" ref="I34:I65" ca="1" si="2">I33-C34</f>
+        <v>-1254</v>
+      </c>
+      <c r="J34">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10">
+      <c r="C35">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>68</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="1"/>
+        <v>-703</v>
+      </c>
+      <c r="I35">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1322</v>
+      </c>
+      <c r="J35">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10">
+      <c r="C36">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>66</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="1"/>
+        <v>-752</v>
+      </c>
+      <c r="I36">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1388</v>
+      </c>
+      <c r="J36">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10">
+      <c r="C37">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>66</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ca="1" si="1"/>
+        <v>-802</v>
+      </c>
+      <c r="I37">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1454</v>
+      </c>
+      <c r="J37">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10">
+      <c r="C38">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>64</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ca="1" si="1"/>
+        <v>-854</v>
+      </c>
+      <c r="I38">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1518</v>
+      </c>
+      <c r="J38">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="3:10">
+      <c r="C39">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>69</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="1"/>
+        <v>-901</v>
+      </c>
+      <c r="I39">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1587</v>
+      </c>
+      <c r="J39">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10">
+      <c r="C40">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>67</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ca="1" si="1"/>
+        <v>-950</v>
+      </c>
+      <c r="I40">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1654</v>
+      </c>
+      <c r="J40">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10">
+      <c r="C41">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>63</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ca="1" si="1"/>
+        <v>-998</v>
+      </c>
+      <c r="I41">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1717</v>
+      </c>
+      <c r="J41">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="3:10">
+      <c r="C42">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>63</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1050</v>
+      </c>
+      <c r="I42">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1780</v>
+      </c>
+      <c r="J42">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10">
+      <c r="C43">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>64</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1102</v>
+      </c>
+      <c r="I43">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1844</v>
+      </c>
+      <c r="J43">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="3:10">
+      <c r="C44">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>63</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1151</v>
+      </c>
+      <c r="I44">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1907</v>
+      </c>
+      <c r="J44">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10">
+      <c r="C45">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>67</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1198</v>
+      </c>
+      <c r="I45">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1974</v>
+      </c>
+      <c r="J45">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="3:10">
+      <c r="C46">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>63</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1248</v>
+      </c>
+      <c r="I46">
+        <f t="shared" ca="1" si="2"/>
+        <v>-2037</v>
+      </c>
+      <c r="J46">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="3:10">
+      <c r="C47">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>70</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1295</v>
+      </c>
+      <c r="I47">
+        <f t="shared" ca="1" si="2"/>
+        <v>-2107</v>
+      </c>
+      <c r="J47">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="3:10">
+      <c r="C48">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>64</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1342</v>
+      </c>
+      <c r="I48">
+        <f t="shared" ca="1" si="2"/>
+        <v>-2171</v>
+      </c>
+      <c r="J48">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="3:10">
+      <c r="C49">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>67</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1392</v>
+      </c>
+      <c r="I49">
+        <f t="shared" ca="1" si="2"/>
+        <v>-2238</v>
+      </c>
+      <c r="J49">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="3:10">
+      <c r="C50">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>66</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1442</v>
+      </c>
+      <c r="I50">
+        <f t="shared" ca="1" si="2"/>
+        <v>-2304</v>
+      </c>
+      <c r="J50">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="3:10">
+      <c r="C51">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>69</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1492</v>
+      </c>
+      <c r="I51">
+        <f t="shared" ca="1" si="2"/>
+        <v>-2373</v>
+      </c>
+      <c r="J51">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="3:10">
+      <c r="C52">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>69</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1543</v>
+      </c>
+      <c r="I52">
+        <f t="shared" ca="1" si="2"/>
+        <v>-2442</v>
+      </c>
+      <c r="J52">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="3:10">
+      <c r="C53">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>66</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1594</v>
+      </c>
+      <c r="I53">
+        <f t="shared" ca="1" si="2"/>
+        <v>-2508</v>
+      </c>
+      <c r="J53">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="3:10">
+      <c r="C54">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>67</v>
+      </c>
+      <c r="D54">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1641</v>
+      </c>
+      <c r="I54">
+        <f t="shared" ca="1" si="2"/>
+        <v>-2575</v>
+      </c>
+      <c r="J54">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="3:10">
+      <c r="C55">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>68</v>
+      </c>
+      <c r="D55">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1693</v>
+      </c>
+      <c r="I55">
+        <f t="shared" ca="1" si="2"/>
+        <v>-2643</v>
+      </c>
+      <c r="J55">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="3:10">
+      <c r="C56">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>64</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1693</v>
+      </c>
+      <c r="I56">
+        <f t="shared" ca="1" si="2"/>
+        <v>-2707</v>
+      </c>
+      <c r="J56">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="3:10">
+      <c r="C57">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>68</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1742</v>
+      </c>
+      <c r="I57">
+        <f t="shared" ca="1" si="2"/>
+        <v>-2775</v>
+      </c>
+      <c r="J57">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="3:10">
+      <c r="C58">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>68</v>
+      </c>
+      <c r="D58">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1790</v>
+      </c>
+      <c r="I58">
+        <f t="shared" ca="1" si="2"/>
+        <v>-2843</v>
+      </c>
+      <c r="J58">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="3:10">
+      <c r="C59">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>64</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1790</v>
+      </c>
+      <c r="I59">
+        <f t="shared" ca="1" si="2"/>
+        <v>-2907</v>
+      </c>
+      <c r="J59">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:10">
+      <c r="C60">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>66</v>
+      </c>
+      <c r="D60">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1841</v>
+      </c>
+      <c r="I60">
+        <f t="shared" ca="1" si="2"/>
+        <v>-2973</v>
+      </c>
+      <c r="J60">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="3:10">
+      <c r="C61">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>70</v>
+      </c>
+      <c r="D61">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1893</v>
+      </c>
+      <c r="I61">
+        <f t="shared" ca="1" si="2"/>
+        <v>-3043</v>
+      </c>
+      <c r="J61">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="3:10">
+      <c r="C62">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>65</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1893</v>
+      </c>
+      <c r="I62">
+        <f t="shared" ca="1" si="2"/>
+        <v>-3108</v>
+      </c>
+      <c r="J62">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:10">
+      <c r="C63">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>64</v>
+      </c>
+      <c r="D63">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1944</v>
+      </c>
+      <c r="I63">
+        <f t="shared" ca="1" si="2"/>
+        <v>-3172</v>
+      </c>
+      <c r="J63">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="3:10">
+      <c r="C64">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>69</v>
+      </c>
+      <c r="D64">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1995</v>
+      </c>
+      <c r="I64">
+        <f t="shared" ca="1" si="2"/>
+        <v>-3241</v>
+      </c>
+      <c r="J64">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="3:10">
+      <c r="C65">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>66</v>
+      </c>
+      <c r="D65">
+        <f t="shared" ca="1" si="1"/>
+        <v>-2047</v>
+      </c>
+      <c r="I65">
+        <f t="shared" ca="1" si="2"/>
+        <v>-3307</v>
+      </c>
+      <c r="J65">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="3:10">
+      <c r="C66">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>70</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ca="1" si="1"/>
+        <v>-2099</v>
+      </c>
+      <c r="I66">
+        <f t="shared" ref="I66:I100" ca="1" si="3">I65-C66</f>
+        <v>-3377</v>
+      </c>
+      <c r="J66">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67" spans="3:10">
+      <c r="C67">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>65</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D100" ca="1" si="4">D66-J67</f>
+        <v>-2148</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ca="1" si="3"/>
+        <v>-3442</v>
+      </c>
+      <c r="J67">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="3:10">
+      <c r="C68">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>68</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2198</v>
+      </c>
+      <c r="I68">
+        <f t="shared" ca="1" si="3"/>
+        <v>-3510</v>
+      </c>
+      <c r="J68">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="3:10">
+      <c r="C69">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>66</v>
+      </c>
+      <c r="D69">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2198</v>
+      </c>
+      <c r="I69">
+        <f t="shared" ca="1" si="3"/>
+        <v>-3576</v>
+      </c>
+      <c r="J69">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="3:10">
+      <c r="C70">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>66</v>
+      </c>
+      <c r="D70">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2245</v>
+      </c>
+      <c r="I70">
+        <f t="shared" ca="1" si="3"/>
+        <v>-3642</v>
+      </c>
+      <c r="J70">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71" spans="3:10">
+      <c r="C71">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>63</v>
+      </c>
+      <c r="D71">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2297</v>
+      </c>
+      <c r="I71">
+        <f t="shared" ca="1" si="3"/>
+        <v>-3705</v>
+      </c>
+      <c r="J71">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="72" spans="3:10">
+      <c r="C72">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>68</v>
+      </c>
+      <c r="D72">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2347</v>
+      </c>
+      <c r="I72">
+        <f t="shared" ca="1" si="3"/>
+        <v>-3773</v>
+      </c>
+      <c r="J72">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="3:10">
+      <c r="C73">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>67</v>
+      </c>
+      <c r="D73">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2394</v>
+      </c>
+      <c r="I73">
+        <f t="shared" ca="1" si="3"/>
+        <v>-3840</v>
+      </c>
+      <c r="J73">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="74" spans="3:10">
+      <c r="C74">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>70</v>
+      </c>
+      <c r="D74">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2445</v>
+      </c>
+      <c r="I74">
+        <f t="shared" ca="1" si="3"/>
+        <v>-3910</v>
+      </c>
+      <c r="J74">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="75" spans="3:10">
+      <c r="C75">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>64</v>
+      </c>
+      <c r="D75">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2493</v>
+      </c>
+      <c r="I75">
+        <f t="shared" ca="1" si="3"/>
+        <v>-3974</v>
+      </c>
+      <c r="J75">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="3:10">
+      <c r="C76">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>63</v>
+      </c>
+      <c r="D76">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2545</v>
+      </c>
+      <c r="I76">
+        <f t="shared" ca="1" si="3"/>
+        <v>-4037</v>
+      </c>
+      <c r="J76">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="77" spans="3:10">
+      <c r="C77">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>68</v>
+      </c>
+      <c r="D77">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2593</v>
+      </c>
+      <c r="I77">
+        <f t="shared" ca="1" si="3"/>
+        <v>-4105</v>
+      </c>
+      <c r="J77">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="78" spans="3:10">
+      <c r="C78">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>69</v>
+      </c>
+      <c r="D78">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2593</v>
+      </c>
+      <c r="I78">
+        <f t="shared" ca="1" si="3"/>
+        <v>-4174</v>
+      </c>
+      <c r="J78">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="3:10">
+      <c r="C79">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>68</v>
+      </c>
+      <c r="D79">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2643</v>
+      </c>
+      <c r="I79">
+        <f t="shared" ca="1" si="3"/>
+        <v>-4242</v>
+      </c>
+      <c r="J79">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="3:10">
+      <c r="C80">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>70</v>
+      </c>
+      <c r="D80">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2693</v>
+      </c>
+      <c r="I80">
+        <f t="shared" ca="1" si="3"/>
+        <v>-4312</v>
+      </c>
+      <c r="J80">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="3:10">
+      <c r="C81">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>63</v>
+      </c>
+      <c r="D81">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2744</v>
+      </c>
+      <c r="I81">
+        <f t="shared" ca="1" si="3"/>
+        <v>-4375</v>
+      </c>
+      <c r="J81">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="82" spans="3:10">
+      <c r="C82">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>70</v>
+      </c>
+      <c r="D82">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2796</v>
+      </c>
+      <c r="I82">
+        <f t="shared" ca="1" si="3"/>
+        <v>-4445</v>
+      </c>
+      <c r="J82">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="83" spans="3:10">
+      <c r="C83">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>64</v>
+      </c>
+      <c r="D83">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2847</v>
+      </c>
+      <c r="I83">
+        <f t="shared" ca="1" si="3"/>
+        <v>-4509</v>
+      </c>
+      <c r="J83">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="84" spans="3:10">
+      <c r="C84">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>70</v>
+      </c>
+      <c r="D84">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2899</v>
+      </c>
+      <c r="I84">
+        <f t="shared" ca="1" si="3"/>
+        <v>-4579</v>
+      </c>
+      <c r="J84">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="85" spans="3:10">
+      <c r="C85">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>63</v>
+      </c>
+      <c r="D85">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2947</v>
+      </c>
+      <c r="I85">
+        <f t="shared" ca="1" si="3"/>
+        <v>-4642</v>
+      </c>
+      <c r="J85">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="86" spans="3:10">
+      <c r="C86">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>66</v>
+      </c>
+      <c r="D86">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2996</v>
+      </c>
+      <c r="I86">
+        <f t="shared" ca="1" si="3"/>
+        <v>-4708</v>
+      </c>
+      <c r="J86">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="87" spans="3:10">
+      <c r="C87">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>68</v>
+      </c>
+      <c r="D87">
+        <f t="shared" ca="1" si="4"/>
+        <v>-3045</v>
+      </c>
+      <c r="I87">
+        <f t="shared" ca="1" si="3"/>
+        <v>-4776</v>
+      </c>
+      <c r="J87">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="88" spans="3:10">
+      <c r="C88">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>68</v>
+      </c>
+      <c r="D88">
+        <f t="shared" ca="1" si="4"/>
+        <v>-3097</v>
+      </c>
+      <c r="I88">
+        <f t="shared" ca="1" si="3"/>
+        <v>-4844</v>
+      </c>
+      <c r="J88">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="89" spans="3:10">
+      <c r="C89">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>64</v>
+      </c>
+      <c r="D89">
+        <f t="shared" ca="1" si="4"/>
+        <v>-3145</v>
+      </c>
+      <c r="I89">
+        <f t="shared" ca="1" si="3"/>
+        <v>-4908</v>
+      </c>
+      <c r="J89">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="90" spans="3:10">
+      <c r="C90">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>65</v>
+      </c>
+      <c r="D90">
+        <f t="shared" ca="1" si="4"/>
+        <v>-3192</v>
+      </c>
+      <c r="I90">
+        <f t="shared" ca="1" si="3"/>
+        <v>-4973</v>
+      </c>
+      <c r="J90">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="91" spans="3:10">
+      <c r="C91">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>67</v>
+      </c>
+      <c r="D91">
+        <f t="shared" ca="1" si="4"/>
+        <v>-3243</v>
+      </c>
+      <c r="I91">
+        <f t="shared" ca="1" si="3"/>
+        <v>-5040</v>
+      </c>
+      <c r="J91">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="92" spans="3:10">
+      <c r="C92">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>68</v>
+      </c>
+      <c r="D92">
+        <f t="shared" ca="1" si="4"/>
+        <v>-3293</v>
+      </c>
+      <c r="I92">
+        <f t="shared" ca="1" si="3"/>
+        <v>-5108</v>
+      </c>
+      <c r="J92">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="3:10">
+      <c r="C93">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>64</v>
+      </c>
+      <c r="D93">
+        <f t="shared" ca="1" si="4"/>
+        <v>-3343</v>
+      </c>
+      <c r="I93">
+        <f t="shared" ca="1" si="3"/>
+        <v>-5172</v>
+      </c>
+      <c r="J93">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="3:10">
+      <c r="C94">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>66</v>
+      </c>
+      <c r="D94">
+        <f t="shared" ca="1" si="4"/>
+        <v>-3395</v>
+      </c>
+      <c r="I94">
+        <f t="shared" ca="1" si="3"/>
+        <v>-5238</v>
+      </c>
+      <c r="J94">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="95" spans="3:10">
+      <c r="C95">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>66</v>
+      </c>
+      <c r="D95">
+        <f t="shared" ca="1" si="4"/>
+        <v>-3395</v>
+      </c>
+      <c r="I95">
+        <f t="shared" ca="1" si="3"/>
+        <v>-5304</v>
+      </c>
+      <c r="J95">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="3:10">
+      <c r="C96">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>64</v>
+      </c>
+      <c r="D96">
+        <f t="shared" ca="1" si="4"/>
+        <v>-3445</v>
+      </c>
+      <c r="I96">
+        <f t="shared" ca="1" si="3"/>
+        <v>-5368</v>
+      </c>
+      <c r="J96">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="3:10">
+      <c r="C97">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>70</v>
+      </c>
+      <c r="D97">
+        <f t="shared" ca="1" si="4"/>
+        <v>-3497</v>
+      </c>
+      <c r="I97">
+        <f t="shared" ca="1" si="3"/>
+        <v>-5438</v>
+      </c>
+      <c r="J97">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="98" spans="3:10">
+      <c r="C98">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>65</v>
+      </c>
+      <c r="D98">
+        <f t="shared" ca="1" si="4"/>
+        <v>-3546</v>
+      </c>
+      <c r="I98">
+        <f t="shared" ca="1" si="3"/>
+        <v>-5503</v>
+      </c>
+      <c r="J98">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="99" spans="3:10">
+      <c r="C99">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>64</v>
+      </c>
+      <c r="D99">
+        <f t="shared" ca="1" si="4"/>
+        <v>-3593</v>
+      </c>
+      <c r="I99">
+        <f t="shared" ca="1" si="3"/>
+        <v>-5567</v>
+      </c>
+      <c r="J99">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="100" spans="3:10">
+      <c r="C100">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>63</v>
+      </c>
+      <c r="D100">
+        <f t="shared" ca="1" si="4"/>
+        <v>-3593</v>
+      </c>
+      <c r="I100">
+        <f t="shared" ca="1" si="3"/>
+        <v>-5630</v>
+      </c>
+      <c r="J100">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/成长伤害公式.xlsx
+++ b/成长伤害公式.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="22320" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="18040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>P1内功</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -77,19 +77,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>E1伤害队列</t>
+    <t>外功下限比例</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>P1伤害队列</t>
+    <t>外功上限比例</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>P1剩余气血</t>
+    <t>内功下限比例</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>E1剩余气血</t>
+    <t>内功上限比例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避概率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -158,7 +162,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -206,12 +210,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="63">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -235,6 +256,14 @@
     <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -258,6 +287,14 @@
     <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -587,29 +624,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L8"/>
+  <dimension ref="A1:L100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="1:12">
+      <c r="C1">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>66</v>
+      </c>
+      <c r="D1">
+        <f ca="1">B3-J1</f>
+        <v>951</v>
+      </c>
+      <c r="I1">
+        <f ca="1">K3-C1</f>
+        <v>934</v>
+      </c>
+      <c r="J1">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>49</v>
+      </c>
+    </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>14</v>
+      <c r="C2" s="2">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>69</v>
+      </c>
+      <c r="D2">
+        <f ca="1">D1-J2</f>
+        <v>904</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I33" ca="1" si="0">I1-C2</f>
+        <v>865</v>
+      </c>
+      <c r="J2">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>47</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>13</v>
@@ -623,12 +685,20 @@
         <v>1000</v>
       </c>
       <c r="C3">
-        <f>INT(B4*B4/(B4+K5))</f>
-        <v>66</v>
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>64</v>
       </c>
       <c r="D3">
-        <f>B3-C3</f>
-        <v>934</v>
+        <f t="shared" ref="D3:D66" ca="1" si="1">D2-J3</f>
+        <v>856</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ca="1" si="0"/>
+        <v>801</v>
+      </c>
+      <c r="J3">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>48</v>
       </c>
       <c r="K3">
         <v>1000</v>
@@ -645,12 +715,20 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <f>INT(B4*B4/(B4+K5))</f>
-        <v>66</v>
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>63</v>
       </c>
       <c r="D4">
-        <f>D3-C4</f>
-        <v>868</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>856</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ca="1" si="0"/>
+        <v>738</v>
+      </c>
+      <c r="J4">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>100</v>
@@ -664,7 +742,23 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>50</v>
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>67</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="1"/>
+        <v>808</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ca="1" si="0"/>
+        <v>671</v>
+      </c>
+      <c r="J5">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>48</v>
       </c>
       <c r="K5">
         <v>50</v>
@@ -680,6 +774,22 @@
       <c r="B6">
         <v>100</v>
       </c>
+      <c r="C6">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>66</v>
+      </c>
+      <c r="D6">
+        <f ca="1">D5-J6</f>
+        <v>758</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ca="1" si="0"/>
+        <v>605</v>
+      </c>
+      <c r="J6">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>50</v>
+      </c>
       <c r="K6">
         <v>100</v>
       </c>
@@ -694,6 +804,22 @@
       <c r="B7">
         <v>50</v>
       </c>
+      <c r="C7">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>69</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="1"/>
+        <v>707</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ca="1" si="0"/>
+        <v>536</v>
+      </c>
+      <c r="J7">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>51</v>
+      </c>
       <c r="K7">
         <v>50</v>
       </c>
@@ -706,13 +832,1712 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>25</v>
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>63</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="1"/>
+        <v>655</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ca="1" si="0"/>
+        <v>473</v>
+      </c>
+      <c r="J8">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>52</v>
       </c>
       <c r="K8">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L8" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="C9">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>68</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="1"/>
+        <v>607</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ca="1" si="0"/>
+        <v>405</v>
+      </c>
+      <c r="J9">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>95</v>
+      </c>
+      <c r="C10">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>68</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="1"/>
+        <v>560</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ca="1" si="0"/>
+        <v>337</v>
+      </c>
+      <c r="J10">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>105</v>
+      </c>
+      <c r="C11">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>67</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="1"/>
+        <v>512</v>
+      </c>
+      <c r="I11">
+        <f t="shared" ca="1" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="J11">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>95</v>
+      </c>
+      <c r="C12">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>65</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="1"/>
+        <v>464</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ca="1" si="0"/>
+        <v>205</v>
+      </c>
+      <c r="J12">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>105</v>
+      </c>
+      <c r="C13">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>64</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="1"/>
+        <v>415</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ca="1" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="J13">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>64</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="1"/>
+        <v>367</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ca="1" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="J14">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="C15">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>66</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="1"/>
+        <v>367</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="J15">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="C16">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>64</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="1"/>
+        <v>318</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ca="1" si="0"/>
+        <v>-53</v>
+      </c>
+      <c r="J16">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10">
+      <c r="C17">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>66</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="1"/>
+        <v>269</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ca="1" si="0"/>
+        <v>-119</v>
+      </c>
+      <c r="J17">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10">
+      <c r="C18">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>64</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="1"/>
+        <v>221</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ca="1" si="0"/>
+        <v>-183</v>
+      </c>
+      <c r="J18">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10">
+      <c r="C19">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>67</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="1"/>
+        <v>169</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ca="1" si="0"/>
+        <v>-250</v>
+      </c>
+      <c r="J19">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10">
+      <c r="C20">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>70</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="I20">
+        <f t="shared" ca="1" si="0"/>
+        <v>-320</v>
+      </c>
+      <c r="J20">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10">
+      <c r="C21">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>66</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ca="1" si="0"/>
+        <v>-386</v>
+      </c>
+      <c r="J21">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10">
+      <c r="C22">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>70</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ca="1" si="0"/>
+        <v>-456</v>
+      </c>
+      <c r="J22">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10">
+      <c r="C23">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>64</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="1"/>
+        <v>-30</v>
+      </c>
+      <c r="I23">
+        <f t="shared" ca="1" si="0"/>
+        <v>-520</v>
+      </c>
+      <c r="J23">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10">
+      <c r="C24">
+        <f ca="1">INT(RANDBETWEEN(95,105)*0.01 * (B4*B4/(B4+K5)))</f>
+        <v>67</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="1"/>
+        <v>-78</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ca="1" si="0"/>
+        <v>-587</v>
+      </c>
+      <c r="J24">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10">
+      <c r="C25">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>68</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="1"/>
+        <v>-129</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ca="1" si="0"/>
+        <v>-655</v>
+      </c>
+      <c r="J25">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10">
+      <c r="C26">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>64</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="1"/>
+        <v>-181</v>
+      </c>
+      <c r="I26">
+        <f t="shared" ca="1" si="0"/>
+        <v>-719</v>
+      </c>
+      <c r="J26">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10">
+      <c r="C27">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>64</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="1"/>
+        <v>-228</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ca="1" si="0"/>
+        <v>-783</v>
+      </c>
+      <c r="J27">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10">
+      <c r="C28">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>69</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="1"/>
+        <v>-275</v>
+      </c>
+      <c r="I28">
+        <f t="shared" ca="1" si="0"/>
+        <v>-852</v>
+      </c>
+      <c r="J28">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10">
+      <c r="C29">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>66</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="1"/>
+        <v>-326</v>
+      </c>
+      <c r="I29">
+        <f t="shared" ca="1" si="0"/>
+        <v>-918</v>
+      </c>
+      <c r="J29">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10">
+      <c r="C30">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>63</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="1"/>
+        <v>-376</v>
+      </c>
+      <c r="I30">
+        <f t="shared" ca="1" si="0"/>
+        <v>-981</v>
+      </c>
+      <c r="J30">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10">
+      <c r="C31">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>68</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-426</v>
+      </c>
+      <c r="I31">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1049</v>
+      </c>
+      <c r="J31">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10">
+      <c r="C32">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>67</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="1"/>
+        <v>-477</v>
+      </c>
+      <c r="I32">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1116</v>
+      </c>
+      <c r="J32">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10">
+      <c r="C33">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>66</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="1"/>
+        <v>-528</v>
+      </c>
+      <c r="I33">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1182</v>
+      </c>
+      <c r="J33">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10">
+      <c r="C34">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>68</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="1"/>
+        <v>-579</v>
+      </c>
+      <c r="I34">
+        <f t="shared" ref="I34:I65" ca="1" si="2">I33-C34</f>
+        <v>-1250</v>
+      </c>
+      <c r="J34">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10">
+      <c r="C35">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>64</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="1"/>
+        <v>-628</v>
+      </c>
+      <c r="I35">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1314</v>
+      </c>
+      <c r="J35">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10">
+      <c r="C36">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>67</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="1"/>
+        <v>-679</v>
+      </c>
+      <c r="I36">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1381</v>
+      </c>
+      <c r="J36">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10">
+      <c r="C37">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>68</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ca="1" si="1"/>
+        <v>-729</v>
+      </c>
+      <c r="I37">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1449</v>
+      </c>
+      <c r="J37">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10">
+      <c r="C38">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>64</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ca="1" si="1"/>
+        <v>-729</v>
+      </c>
+      <c r="I38">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1513</v>
+      </c>
+      <c r="J38">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="3:10">
+      <c r="C39">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>64</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="1"/>
+        <v>-729</v>
+      </c>
+      <c r="I39">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1577</v>
+      </c>
+      <c r="J39">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10">
+      <c r="C40">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>64</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ca="1" si="1"/>
+        <v>-779</v>
+      </c>
+      <c r="I40">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1641</v>
+      </c>
+      <c r="J40">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10">
+      <c r="C41">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>64</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ca="1" si="1"/>
+        <v>-827</v>
+      </c>
+      <c r="I41">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1705</v>
+      </c>
+      <c r="J41">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="3:10">
+      <c r="C42">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>69</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="1"/>
+        <v>-874</v>
+      </c>
+      <c r="I42">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1774</v>
+      </c>
+      <c r="J42">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10">
+      <c r="C43">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>66</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ca="1" si="1"/>
+        <v>-922</v>
+      </c>
+      <c r="I43">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1840</v>
+      </c>
+      <c r="J43">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="3:10">
+      <c r="C44">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>65</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ca="1" si="1"/>
+        <v>-974</v>
+      </c>
+      <c r="I44">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1905</v>
+      </c>
+      <c r="J44">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10">
+      <c r="C45">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>64</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="1"/>
+        <v>-974</v>
+      </c>
+      <c r="I45">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1969</v>
+      </c>
+      <c r="J45">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="3:10">
+      <c r="C46">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>65</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1022</v>
+      </c>
+      <c r="I46">
+        <f t="shared" ca="1" si="2"/>
+        <v>-2034</v>
+      </c>
+      <c r="J46">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="3:10">
+      <c r="C47">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>70</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1070</v>
+      </c>
+      <c r="I47">
+        <f t="shared" ca="1" si="2"/>
+        <v>-2104</v>
+      </c>
+      <c r="J47">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="3:10">
+      <c r="C48">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>70</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1118</v>
+      </c>
+      <c r="I48">
+        <f t="shared" ca="1" si="2"/>
+        <v>-2174</v>
+      </c>
+      <c r="J48">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="3:10">
+      <c r="C49">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>68</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1169</v>
+      </c>
+      <c r="I49">
+        <f t="shared" ca="1" si="2"/>
+        <v>-2242</v>
+      </c>
+      <c r="J49">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="3:10">
+      <c r="C50">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>68</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1217</v>
+      </c>
+      <c r="I50">
+        <f t="shared" ca="1" si="2"/>
+        <v>-2310</v>
+      </c>
+      <c r="J50">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="3:10">
+      <c r="C51">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>66</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1217</v>
+      </c>
+      <c r="I51">
+        <f t="shared" ca="1" si="2"/>
+        <v>-2376</v>
+      </c>
+      <c r="J51">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:10">
+      <c r="C52">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>64</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1266</v>
+      </c>
+      <c r="I52">
+        <f t="shared" ca="1" si="2"/>
+        <v>-2440</v>
+      </c>
+      <c r="J52">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="3:10">
+      <c r="C53">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>65</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1316</v>
+      </c>
+      <c r="I53">
+        <f t="shared" ca="1" si="2"/>
+        <v>-2505</v>
+      </c>
+      <c r="J53">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="3:10">
+      <c r="C54">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>70</v>
+      </c>
+      <c r="D54">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1364</v>
+      </c>
+      <c r="I54">
+        <f t="shared" ca="1" si="2"/>
+        <v>-2575</v>
+      </c>
+      <c r="J54">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="3:10">
+      <c r="C55">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>68</v>
+      </c>
+      <c r="D55">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1414</v>
+      </c>
+      <c r="I55">
+        <f t="shared" ca="1" si="2"/>
+        <v>-2643</v>
+      </c>
+      <c r="J55">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="3:10">
+      <c r="C56">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>67</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1462</v>
+      </c>
+      <c r="I56">
+        <f t="shared" ca="1" si="2"/>
+        <v>-2710</v>
+      </c>
+      <c r="J56">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="3:10">
+      <c r="C57">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>70</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1513</v>
+      </c>
+      <c r="I57">
+        <f t="shared" ca="1" si="2"/>
+        <v>-2780</v>
+      </c>
+      <c r="J57">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="3:10">
+      <c r="C58">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>69</v>
+      </c>
+      <c r="D58">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1565</v>
+      </c>
+      <c r="I58">
+        <f t="shared" ca="1" si="2"/>
+        <v>-2849</v>
+      </c>
+      <c r="J58">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="3:10">
+      <c r="C59">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>70</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1617</v>
+      </c>
+      <c r="I59">
+        <f t="shared" ca="1" si="2"/>
+        <v>-2919</v>
+      </c>
+      <c r="J59">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="3:10">
+      <c r="C60">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>64</v>
+      </c>
+      <c r="D60">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1664</v>
+      </c>
+      <c r="I60">
+        <f t="shared" ca="1" si="2"/>
+        <v>-2983</v>
+      </c>
+      <c r="J60">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="3:10">
+      <c r="C61">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>63</v>
+      </c>
+      <c r="D61">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1715</v>
+      </c>
+      <c r="I61">
+        <f t="shared" ca="1" si="2"/>
+        <v>-3046</v>
+      </c>
+      <c r="J61">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="3:10">
+      <c r="C62">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>70</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1762</v>
+      </c>
+      <c r="I62">
+        <f t="shared" ca="1" si="2"/>
+        <v>-3116</v>
+      </c>
+      <c r="J62">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="3:10">
+      <c r="C63">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>65</v>
+      </c>
+      <c r="D63">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1809</v>
+      </c>
+      <c r="I63">
+        <f t="shared" ca="1" si="2"/>
+        <v>-3181</v>
+      </c>
+      <c r="J63">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="3:10">
+      <c r="C64">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>70</v>
+      </c>
+      <c r="D64">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1859</v>
+      </c>
+      <c r="I64">
+        <f t="shared" ca="1" si="2"/>
+        <v>-3251</v>
+      </c>
+      <c r="J64">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="3:10">
+      <c r="C65">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>64</v>
+      </c>
+      <c r="D65">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1911</v>
+      </c>
+      <c r="I65">
+        <f t="shared" ca="1" si="2"/>
+        <v>-3315</v>
+      </c>
+      <c r="J65">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="3:10">
+      <c r="C66">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>63</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1962</v>
+      </c>
+      <c r="I66">
+        <f t="shared" ref="I66:I100" ca="1" si="3">I65-C66</f>
+        <v>-3378</v>
+      </c>
+      <c r="J66">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="3:10">
+      <c r="C67">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>63</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D100" ca="1" si="4">D66-J67</f>
+        <v>-2010</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ca="1" si="3"/>
+        <v>-3441</v>
+      </c>
+      <c r="J67">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="3:10">
+      <c r="C68">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>68</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2010</v>
+      </c>
+      <c r="I68">
+        <f t="shared" ca="1" si="3"/>
+        <v>-3509</v>
+      </c>
+      <c r="J68">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="3:10">
+      <c r="C69">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>69</v>
+      </c>
+      <c r="D69">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2058</v>
+      </c>
+      <c r="I69">
+        <f t="shared" ca="1" si="3"/>
+        <v>-3578</v>
+      </c>
+      <c r="J69">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="3:10">
+      <c r="C70">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>67</v>
+      </c>
+      <c r="D70">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2109</v>
+      </c>
+      <c r="I70">
+        <f t="shared" ca="1" si="3"/>
+        <v>-3645</v>
+      </c>
+      <c r="J70">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="71" spans="3:10">
+      <c r="C71">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>70</v>
+      </c>
+      <c r="D71">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2157</v>
+      </c>
+      <c r="I71">
+        <f t="shared" ca="1" si="3"/>
+        <v>-3715</v>
+      </c>
+      <c r="J71">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="3:10">
+      <c r="C72">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>68</v>
+      </c>
+      <c r="D72">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2205</v>
+      </c>
+      <c r="I72">
+        <f t="shared" ca="1" si="3"/>
+        <v>-3783</v>
+      </c>
+      <c r="J72">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="3:10">
+      <c r="C73">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>67</v>
+      </c>
+      <c r="D73">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2254</v>
+      </c>
+      <c r="I73">
+        <f t="shared" ca="1" si="3"/>
+        <v>-3850</v>
+      </c>
+      <c r="J73">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="3:10">
+      <c r="C74">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>64</v>
+      </c>
+      <c r="D74">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2303</v>
+      </c>
+      <c r="I74">
+        <f t="shared" ca="1" si="3"/>
+        <v>-3914</v>
+      </c>
+      <c r="J74">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" spans="3:10">
+      <c r="C75">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>64</v>
+      </c>
+      <c r="D75">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2351</v>
+      </c>
+      <c r="I75">
+        <f t="shared" ca="1" si="3"/>
+        <v>-3978</v>
+      </c>
+      <c r="J75">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="3:10">
+      <c r="C76">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>64</v>
+      </c>
+      <c r="D76">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2398</v>
+      </c>
+      <c r="I76">
+        <f t="shared" ca="1" si="3"/>
+        <v>-4042</v>
+      </c>
+      <c r="J76">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="77" spans="3:10">
+      <c r="C77">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>68</v>
+      </c>
+      <c r="D77">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2450</v>
+      </c>
+      <c r="I77">
+        <f t="shared" ca="1" si="3"/>
+        <v>-4110</v>
+      </c>
+      <c r="J77">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="78" spans="3:10">
+      <c r="C78">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>64</v>
+      </c>
+      <c r="D78">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2501</v>
+      </c>
+      <c r="I78">
+        <f t="shared" ca="1" si="3"/>
+        <v>-4174</v>
+      </c>
+      <c r="J78">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="79" spans="3:10">
+      <c r="C79">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>66</v>
+      </c>
+      <c r="D79">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2552</v>
+      </c>
+      <c r="I79">
+        <f t="shared" ca="1" si="3"/>
+        <v>-4240</v>
+      </c>
+      <c r="J79">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="80" spans="3:10">
+      <c r="C80">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>63</v>
+      </c>
+      <c r="D80">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2601</v>
+      </c>
+      <c r="I80">
+        <f t="shared" ca="1" si="3"/>
+        <v>-4303</v>
+      </c>
+      <c r="J80">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="81" spans="3:10">
+      <c r="C81">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>68</v>
+      </c>
+      <c r="D81">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2651</v>
+      </c>
+      <c r="I81">
+        <f t="shared" ca="1" si="3"/>
+        <v>-4371</v>
+      </c>
+      <c r="J81">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="3:10">
+      <c r="C82">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>64</v>
+      </c>
+      <c r="D82">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2703</v>
+      </c>
+      <c r="I82">
+        <f t="shared" ca="1" si="3"/>
+        <v>-4435</v>
+      </c>
+      <c r="J82">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="83" spans="3:10">
+      <c r="C83">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>68</v>
+      </c>
+      <c r="D83">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2751</v>
+      </c>
+      <c r="I83">
+        <f t="shared" ca="1" si="3"/>
+        <v>-4503</v>
+      </c>
+      <c r="J83">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="84" spans="3:10">
+      <c r="C84">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>68</v>
+      </c>
+      <c r="D84">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2803</v>
+      </c>
+      <c r="I84">
+        <f t="shared" ca="1" si="3"/>
+        <v>-4571</v>
+      </c>
+      <c r="J84">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="85" spans="3:10">
+      <c r="C85">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>69</v>
+      </c>
+      <c r="D85">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2850</v>
+      </c>
+      <c r="I85">
+        <f t="shared" ca="1" si="3"/>
+        <v>-4640</v>
+      </c>
+      <c r="J85">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="86" spans="3:10">
+      <c r="C86">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>69</v>
+      </c>
+      <c r="D86">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2901</v>
+      </c>
+      <c r="I86">
+        <f t="shared" ca="1" si="3"/>
+        <v>-4709</v>
+      </c>
+      <c r="J86">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="87" spans="3:10">
+      <c r="C87">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>68</v>
+      </c>
+      <c r="D87">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2950</v>
+      </c>
+      <c r="I87">
+        <f t="shared" ca="1" si="3"/>
+        <v>-4777</v>
+      </c>
+      <c r="J87">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="88" spans="3:10">
+      <c r="C88">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>64</v>
+      </c>
+      <c r="D88">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2950</v>
+      </c>
+      <c r="I88">
+        <f t="shared" ca="1" si="3"/>
+        <v>-4841</v>
+      </c>
+      <c r="J88">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:10">
+      <c r="C89">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>68</v>
+      </c>
+      <c r="D89">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2998</v>
+      </c>
+      <c r="I89">
+        <f t="shared" ca="1" si="3"/>
+        <v>-4909</v>
+      </c>
+      <c r="J89">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="90" spans="3:10">
+      <c r="C90">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>68</v>
+      </c>
+      <c r="D90">
+        <f t="shared" ca="1" si="4"/>
+        <v>-3048</v>
+      </c>
+      <c r="I90">
+        <f t="shared" ca="1" si="3"/>
+        <v>-4977</v>
+      </c>
+      <c r="J90">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="3:10">
+      <c r="C91">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>68</v>
+      </c>
+      <c r="D91">
+        <f t="shared" ca="1" si="4"/>
+        <v>-3099</v>
+      </c>
+      <c r="I91">
+        <f t="shared" ca="1" si="3"/>
+        <v>-5045</v>
+      </c>
+      <c r="J91">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="92" spans="3:10">
+      <c r="C92">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>64</v>
+      </c>
+      <c r="D92">
+        <f t="shared" ca="1" si="4"/>
+        <v>-3147</v>
+      </c>
+      <c r="I92">
+        <f t="shared" ca="1" si="3"/>
+        <v>-5109</v>
+      </c>
+      <c r="J92">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="93" spans="3:10">
+      <c r="C93">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>67</v>
+      </c>
+      <c r="D93">
+        <f t="shared" ca="1" si="4"/>
+        <v>-3195</v>
+      </c>
+      <c r="I93">
+        <f t="shared" ca="1" si="3"/>
+        <v>-5176</v>
+      </c>
+      <c r="J93">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="94" spans="3:10">
+      <c r="C94">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>70</v>
+      </c>
+      <c r="D94">
+        <f t="shared" ca="1" si="4"/>
+        <v>-3247</v>
+      </c>
+      <c r="I94">
+        <f t="shared" ca="1" si="3"/>
+        <v>-5246</v>
+      </c>
+      <c r="J94">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="95" spans="3:10">
+      <c r="C95">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>66</v>
+      </c>
+      <c r="D95">
+        <f t="shared" ca="1" si="4"/>
+        <v>-3297</v>
+      </c>
+      <c r="I95">
+        <f t="shared" ca="1" si="3"/>
+        <v>-5312</v>
+      </c>
+      <c r="J95">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" spans="3:10">
+      <c r="C96">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>69</v>
+      </c>
+      <c r="D96">
+        <f t="shared" ca="1" si="4"/>
+        <v>-3347</v>
+      </c>
+      <c r="I96">
+        <f t="shared" ca="1" si="3"/>
+        <v>-5381</v>
+      </c>
+      <c r="J96">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="3:10">
+      <c r="C97">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>66</v>
+      </c>
+      <c r="D97">
+        <f t="shared" ca="1" si="4"/>
+        <v>-3395</v>
+      </c>
+      <c r="I97">
+        <f t="shared" ca="1" si="3"/>
+        <v>-5447</v>
+      </c>
+      <c r="J97">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="98" spans="3:10">
+      <c r="C98">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>70</v>
+      </c>
+      <c r="D98">
+        <f t="shared" ca="1" si="4"/>
+        <v>-3443</v>
+      </c>
+      <c r="I98">
+        <f t="shared" ca="1" si="3"/>
+        <v>-5517</v>
+      </c>
+      <c r="J98">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="99" spans="3:10">
+      <c r="C99">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>70</v>
+      </c>
+      <c r="D99">
+        <f t="shared" ca="1" si="4"/>
+        <v>-3491</v>
+      </c>
+      <c r="I99">
+        <f t="shared" ca="1" si="3"/>
+        <v>-5587</v>
+      </c>
+      <c r="J99">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="100" spans="3:10">
+      <c r="C100">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
+        <v>65</v>
+      </c>
+      <c r="D100">
+        <f t="shared" ca="1" si="4"/>
+        <v>-3543</v>
+      </c>
+      <c r="I100">
+        <f t="shared" ca="1" si="3"/>
+        <v>-5652</v>
+      </c>
+      <c r="J100">
+        <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/成长伤害公式.xlsx
+++ b/成长伤害公式.xlsx
@@ -627,7 +627,7 @@
   <dimension ref="A1:L100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -638,19 +638,19 @@
     <row r="1" spans="1:12">
       <c r="C1">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>66</v>
+        <v>355</v>
       </c>
       <c r="D1">
         <f ca="1">B3-J1</f>
-        <v>951</v>
+        <v>888</v>
       </c>
       <c r="I1">
         <f ca="1">K3-C1</f>
-        <v>934</v>
+        <v>745</v>
       </c>
       <c r="J1">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>49</v>
+        <v>512</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -659,19 +659,19 @@
       </c>
       <c r="C2" s="2">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>69</v>
+        <v>338</v>
       </c>
       <c r="D2">
         <f ca="1">D1-J2</f>
-        <v>904</v>
+        <v>339</v>
       </c>
       <c r="I2">
         <f t="shared" ref="I2:I33" ca="1" si="0">I1-C2</f>
-        <v>865</v>
+        <v>407</v>
       </c>
       <c r="J2">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>47</v>
+        <v>549</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>13</v>
@@ -682,26 +682,26 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="C3">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>64</v>
+        <v>341</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D66" ca="1" si="1">D2-J3</f>
-        <v>856</v>
+        <v>-178</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>801</v>
+        <v>66</v>
       </c>
       <c r="J3">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>48</v>
+        <v>517</v>
       </c>
       <c r="K3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="L3" t="s">
         <v>6</v>
@@ -712,26 +712,26 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>550</v>
       </c>
       <c r="C4">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>63</v>
+        <v>341</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>856</v>
+        <v>-738</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>738</v>
+        <v>-275</v>
       </c>
       <c r="J4">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="L4" t="s">
         <v>7</v>
@@ -742,26 +742,26 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="C5">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>67</v>
+        <v>341</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>808</v>
+        <v>-1271</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>671</v>
+        <v>-616</v>
       </c>
       <c r="J5">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>48</v>
+        <v>533</v>
       </c>
       <c r="K5">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="L5" t="s">
         <v>8</v>
@@ -772,23 +772,23 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="C6">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>66</v>
+        <v>366</v>
       </c>
       <c r="D6">
         <f ca="1">D5-J6</f>
-        <v>758</v>
+        <v>-1820</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>605</v>
+        <v>-982</v>
       </c>
       <c r="J6">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>50</v>
+        <v>549</v>
       </c>
       <c r="K6">
         <v>100</v>
@@ -802,26 +802,26 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C7">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>69</v>
+        <v>338</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>707</v>
+        <v>-2326</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>536</v>
+        <v>-1320</v>
       </c>
       <c r="J7">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>51</v>
+        <v>506</v>
       </c>
       <c r="K7">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L7" t="s">
         <v>10</v>
@@ -832,26 +832,26 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>63</v>
+        <v>363</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>655</v>
+        <v>-2870</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>473</v>
+        <v>-1683</v>
       </c>
       <c r="J8">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>52</v>
+        <v>544</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L8" t="s">
         <v>11</v>
@@ -860,19 +860,19 @@
     <row r="9" spans="1:12">
       <c r="C9">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>68</v>
+        <v>363</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
-        <v>607</v>
+        <v>-3382</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>405</v>
+        <v>-2046</v>
       </c>
       <c r="J9">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>48</v>
+        <v>512</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -884,19 +884,19 @@
       </c>
       <c r="C10">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>68</v>
+        <v>373</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
-        <v>560</v>
+        <v>-3382</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>337</v>
+        <v>-2419</v>
       </c>
       <c r="J10">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -908,19 +908,19 @@
       </c>
       <c r="C11">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>67</v>
+        <v>355</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="1"/>
-        <v>512</v>
+        <v>-3910</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>270</v>
+        <v>-2774</v>
       </c>
       <c r="J11">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>48</v>
+        <v>528</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -932,19 +932,19 @@
       </c>
       <c r="C12">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="1"/>
-        <v>464</v>
+        <v>-3910</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>205</v>
+        <v>-2774</v>
       </c>
       <c r="J12">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -956,19 +956,19 @@
       </c>
       <c r="C13">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>64</v>
+        <v>341</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="1"/>
-        <v>415</v>
+        <v>-4427</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>141</v>
+        <v>-3115</v>
       </c>
       <c r="J13">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>49</v>
+        <v>517</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -977,1567 +977,1567 @@
       </c>
       <c r="C14">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>64</v>
+        <v>359</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="1"/>
-        <v>367</v>
+        <v>-4960</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>-3474</v>
       </c>
       <c r="J14">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>48</v>
+        <v>533</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="C15">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>66</v>
+        <v>345</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="1"/>
-        <v>367</v>
+        <v>-5504</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>-3819</v>
       </c>
       <c r="J15">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>0</v>
+        <v>544</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="C16">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="1"/>
-        <v>318</v>
+        <v>-6032</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="0"/>
-        <v>-53</v>
+        <v>-3819</v>
       </c>
       <c r="J16">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>49</v>
+        <v>528</v>
       </c>
     </row>
     <row r="17" spans="3:10">
       <c r="C17">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>66</v>
+        <v>338</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>269</v>
+        <v>-6581</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="0"/>
-        <v>-119</v>
+        <v>-4157</v>
       </c>
       <c r="J17">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>49</v>
+        <v>549</v>
       </c>
     </row>
     <row r="18" spans="3:10">
       <c r="C18">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>64</v>
+        <v>355</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>221</v>
+        <v>-6581</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="0"/>
-        <v>-183</v>
+        <v>-4512</v>
       </c>
       <c r="J18">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="3:10">
       <c r="C19">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>169</v>
+        <v>-7125</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="0"/>
-        <v>-250</v>
+        <v>-4512</v>
       </c>
       <c r="J19">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>52</v>
+        <v>544</v>
       </c>
     </row>
     <row r="20" spans="3:10">
       <c r="C20">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>119</v>
+        <v>-7637</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="0"/>
-        <v>-320</v>
+        <v>-4512</v>
       </c>
       <c r="J20">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>50</v>
+        <v>512</v>
       </c>
     </row>
     <row r="21" spans="3:10">
       <c r="C21">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>66</v>
+        <v>373</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>-8197</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="0"/>
-        <v>-386</v>
+        <v>-4885</v>
       </c>
       <c r="J21">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>50</v>
+        <v>560</v>
       </c>
     </row>
     <row r="22" spans="3:10">
       <c r="C22">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>70</v>
+        <v>366</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>-8714</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="0"/>
-        <v>-456</v>
+        <v>-5251</v>
       </c>
       <c r="J22">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>48</v>
+        <v>517</v>
       </c>
     </row>
     <row r="23" spans="3:10">
       <c r="C23">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>64</v>
+        <v>359</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>-30</v>
+        <v>-9226</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="0"/>
-        <v>-520</v>
+        <v>-5610</v>
       </c>
       <c r="J23">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>51</v>
+        <v>512</v>
       </c>
     </row>
     <row r="24" spans="3:10">
       <c r="C24">
         <f ca="1">INT(RANDBETWEEN(95,105)*0.01 * (B4*B4/(B4+K5)))</f>
-        <v>67</v>
+        <v>373</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>-78</v>
+        <v>-9775</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="0"/>
-        <v>-587</v>
+        <v>-5983</v>
       </c>
       <c r="J24">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>48</v>
+        <v>549</v>
       </c>
     </row>
     <row r="25" spans="3:10">
       <c r="C25">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>68</v>
+        <v>348</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>-129</v>
+        <v>-10303</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="0"/>
-        <v>-655</v>
+        <v>-6331</v>
       </c>
       <c r="J25">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>51</v>
+        <v>528</v>
       </c>
     </row>
     <row r="26" spans="3:10">
       <c r="C26">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>64</v>
+        <v>359</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="1"/>
-        <v>-181</v>
+        <v>-10852</v>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="0"/>
-        <v>-719</v>
+        <v>-6690</v>
       </c>
       <c r="J26">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>52</v>
+        <v>549</v>
       </c>
     </row>
     <row r="27" spans="3:10">
       <c r="C27">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>64</v>
+        <v>341</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="1"/>
-        <v>-228</v>
+        <v>-11369</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="0"/>
-        <v>-783</v>
+        <v>-7031</v>
       </c>
       <c r="J27">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>47</v>
+        <v>517</v>
       </c>
     </row>
     <row r="28" spans="3:10">
       <c r="C28">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>69</v>
+        <v>341</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="1"/>
-        <v>-275</v>
+        <v>-11369</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="0"/>
-        <v>-852</v>
+        <v>-7372</v>
       </c>
       <c r="J28">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="3:10">
       <c r="C29">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>66</v>
+        <v>370</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="1"/>
-        <v>-326</v>
+        <v>-11881</v>
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="0"/>
-        <v>-918</v>
+        <v>-7742</v>
       </c>
       <c r="J29">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>51</v>
+        <v>512</v>
       </c>
     </row>
     <row r="30" spans="3:10">
       <c r="C30">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>63</v>
+        <v>338</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="1"/>
-        <v>-376</v>
+        <v>-11881</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="0"/>
-        <v>-981</v>
+        <v>-8080</v>
       </c>
       <c r="J30">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="3:10">
       <c r="C31">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>68</v>
+        <v>373</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="1"/>
-        <v>-426</v>
+        <v>-12425</v>
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="0"/>
-        <v>-1049</v>
+        <v>-8453</v>
       </c>
       <c r="J31">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>50</v>
+        <v>544</v>
       </c>
     </row>
     <row r="32" spans="3:10">
       <c r="C32">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>67</v>
+        <v>370</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="1"/>
-        <v>-477</v>
+        <v>-12974</v>
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="0"/>
-        <v>-1116</v>
+        <v>-8823</v>
       </c>
       <c r="J32">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>51</v>
+        <v>549</v>
       </c>
     </row>
     <row r="33" spans="3:10">
       <c r="C33">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="1"/>
-        <v>-528</v>
+        <v>-13523</v>
       </c>
       <c r="I33">
         <f t="shared" ca="1" si="0"/>
-        <v>-1182</v>
+        <v>-8823</v>
       </c>
       <c r="J33">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>51</v>
+        <v>549</v>
       </c>
     </row>
     <row r="34" spans="3:10">
       <c r="C34">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>68</v>
+        <v>341</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="1"/>
-        <v>-579</v>
+        <v>-14072</v>
       </c>
       <c r="I34">
         <f t="shared" ref="I34:I65" ca="1" si="2">I33-C34</f>
-        <v>-1250</v>
+        <v>-9164</v>
       </c>
       <c r="J34">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>51</v>
+        <v>549</v>
       </c>
     </row>
     <row r="35" spans="3:10">
       <c r="C35">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>64</v>
+        <v>348</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="1"/>
-        <v>-628</v>
+        <v>-14610</v>
       </c>
       <c r="I35">
         <f t="shared" ca="1" si="2"/>
-        <v>-1314</v>
+        <v>-9512</v>
       </c>
       <c r="J35">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>49</v>
+        <v>538</v>
       </c>
     </row>
     <row r="36" spans="3:10">
       <c r="C36">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>67</v>
+        <v>338</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="1"/>
-        <v>-679</v>
+        <v>-15164</v>
       </c>
       <c r="I36">
         <f t="shared" ca="1" si="2"/>
-        <v>-1381</v>
+        <v>-9850</v>
       </c>
       <c r="J36">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>51</v>
+        <v>554</v>
       </c>
     </row>
     <row r="37" spans="3:10">
       <c r="C37">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>68</v>
+        <v>366</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="1"/>
-        <v>-729</v>
+        <v>-15686</v>
       </c>
       <c r="I37">
         <f t="shared" ca="1" si="2"/>
-        <v>-1449</v>
+        <v>-10216</v>
       </c>
       <c r="J37">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>50</v>
+        <v>522</v>
       </c>
     </row>
     <row r="38" spans="3:10">
       <c r="C38">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>64</v>
+        <v>370</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="1"/>
-        <v>-729</v>
+        <v>-16198</v>
       </c>
       <c r="I38">
         <f t="shared" ca="1" si="2"/>
-        <v>-1513</v>
+        <v>-10586</v>
       </c>
       <c r="J38">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>0</v>
+        <v>512</v>
       </c>
     </row>
     <row r="39" spans="3:10">
       <c r="C39">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="1"/>
-        <v>-729</v>
+        <v>-16720</v>
       </c>
       <c r="I39">
         <f t="shared" ca="1" si="2"/>
-        <v>-1577</v>
+        <v>-10586</v>
       </c>
       <c r="J39">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>0</v>
+        <v>522</v>
       </c>
     </row>
     <row r="40" spans="3:10">
       <c r="C40">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>64</v>
+        <v>355</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="1"/>
-        <v>-779</v>
+        <v>-17269</v>
       </c>
       <c r="I40">
         <f t="shared" ca="1" si="2"/>
-        <v>-1641</v>
+        <v>-10941</v>
       </c>
       <c r="J40">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>50</v>
+        <v>549</v>
       </c>
     </row>
     <row r="41" spans="3:10">
       <c r="C41">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>64</v>
+        <v>355</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="1"/>
-        <v>-827</v>
+        <v>-17791</v>
       </c>
       <c r="I41">
         <f t="shared" ca="1" si="2"/>
-        <v>-1705</v>
+        <v>-11296</v>
       </c>
       <c r="J41">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>48</v>
+        <v>522</v>
       </c>
     </row>
     <row r="42" spans="3:10">
       <c r="C42">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>69</v>
+        <v>355</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="1"/>
-        <v>-874</v>
+        <v>-18329</v>
       </c>
       <c r="I42">
         <f t="shared" ca="1" si="2"/>
-        <v>-1774</v>
+        <v>-11651</v>
       </c>
       <c r="J42">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>47</v>
+        <v>538</v>
       </c>
     </row>
     <row r="43" spans="3:10">
       <c r="C43">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>66</v>
+        <v>338</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="1"/>
-        <v>-922</v>
+        <v>-18862</v>
       </c>
       <c r="I43">
         <f t="shared" ca="1" si="2"/>
-        <v>-1840</v>
+        <v>-11989</v>
       </c>
       <c r="J43">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>48</v>
+        <v>533</v>
       </c>
     </row>
     <row r="44" spans="3:10">
       <c r="C44">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>65</v>
+        <v>345</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="1"/>
-        <v>-974</v>
+        <v>-19384</v>
       </c>
       <c r="I44">
         <f t="shared" ca="1" si="2"/>
-        <v>-1905</v>
+        <v>-12334</v>
       </c>
       <c r="J44">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>52</v>
+        <v>522</v>
       </c>
     </row>
     <row r="45" spans="3:10">
       <c r="C45">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>64</v>
+        <v>359</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="1"/>
-        <v>-974</v>
+        <v>-19933</v>
       </c>
       <c r="I45">
         <f t="shared" ca="1" si="2"/>
-        <v>-1969</v>
+        <v>-12693</v>
       </c>
       <c r="J45">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>0</v>
+        <v>549</v>
       </c>
     </row>
     <row r="46" spans="3:10">
       <c r="C46">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>65</v>
+        <v>341</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="1"/>
-        <v>-1022</v>
+        <v>-20445</v>
       </c>
       <c r="I46">
         <f t="shared" ca="1" si="2"/>
-        <v>-2034</v>
+        <v>-13034</v>
       </c>
       <c r="J46">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>48</v>
+        <v>512</v>
       </c>
     </row>
     <row r="47" spans="3:10">
       <c r="C47">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>70</v>
+        <v>352</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="1"/>
-        <v>-1070</v>
+        <v>-20994</v>
       </c>
       <c r="I47">
         <f t="shared" ca="1" si="2"/>
-        <v>-2104</v>
+        <v>-13386</v>
       </c>
       <c r="J47">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>48</v>
+        <v>549</v>
       </c>
     </row>
     <row r="48" spans="3:10">
       <c r="C48">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>70</v>
+        <v>338</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="1"/>
-        <v>-1118</v>
+        <v>-21516</v>
       </c>
       <c r="I48">
         <f t="shared" ca="1" si="2"/>
-        <v>-2174</v>
+        <v>-13724</v>
       </c>
       <c r="J48">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>48</v>
+        <v>522</v>
       </c>
     </row>
     <row r="49" spans="3:10">
       <c r="C49">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>68</v>
+        <v>373</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="1"/>
-        <v>-1169</v>
+        <v>-22028</v>
       </c>
       <c r="I49">
         <f t="shared" ca="1" si="2"/>
-        <v>-2242</v>
+        <v>-14097</v>
       </c>
       <c r="J49">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>51</v>
+        <v>512</v>
       </c>
     </row>
     <row r="50" spans="3:10">
       <c r="C50">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="1"/>
-        <v>-1217</v>
+        <v>-22534</v>
       </c>
       <c r="I50">
         <f t="shared" ca="1" si="2"/>
-        <v>-2310</v>
+        <v>-14097</v>
       </c>
       <c r="J50">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>48</v>
+        <v>506</v>
       </c>
     </row>
     <row r="51" spans="3:10">
       <c r="C51">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>66</v>
+        <v>359</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="1"/>
-        <v>-1217</v>
+        <v>-23062</v>
       </c>
       <c r="I51">
         <f t="shared" ca="1" si="2"/>
-        <v>-2376</v>
+        <v>-14456</v>
       </c>
       <c r="J51">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>0</v>
+        <v>528</v>
       </c>
     </row>
     <row r="52" spans="3:10">
       <c r="C52">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>64</v>
+        <v>366</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="1"/>
-        <v>-1266</v>
+        <v>-23595</v>
       </c>
       <c r="I52">
         <f t="shared" ca="1" si="2"/>
-        <v>-2440</v>
+        <v>-14822</v>
       </c>
       <c r="J52">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>49</v>
+        <v>533</v>
       </c>
     </row>
     <row r="53" spans="3:10">
       <c r="C53">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>65</v>
+        <v>370</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="1"/>
-        <v>-1316</v>
+        <v>-24117</v>
       </c>
       <c r="I53">
         <f t="shared" ca="1" si="2"/>
-        <v>-2505</v>
+        <v>-15192</v>
       </c>
       <c r="J53">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>50</v>
+        <v>522</v>
       </c>
     </row>
     <row r="54" spans="3:10">
       <c r="C54">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>70</v>
+        <v>355</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="1"/>
-        <v>-1364</v>
+        <v>-24655</v>
       </c>
       <c r="I54">
         <f t="shared" ca="1" si="2"/>
-        <v>-2575</v>
+        <v>-15547</v>
       </c>
       <c r="J54">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>48</v>
+        <v>538</v>
       </c>
     </row>
     <row r="55" spans="3:10">
       <c r="C55">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>68</v>
+        <v>366</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="1"/>
-        <v>-1414</v>
+        <v>-25188</v>
       </c>
       <c r="I55">
         <f t="shared" ca="1" si="2"/>
-        <v>-2643</v>
+        <v>-15913</v>
       </c>
       <c r="J55">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>50</v>
+        <v>533</v>
       </c>
     </row>
     <row r="56" spans="3:10">
       <c r="C56">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>67</v>
+        <v>345</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="1"/>
-        <v>-1462</v>
+        <v>-25705</v>
       </c>
       <c r="I56">
         <f t="shared" ca="1" si="2"/>
-        <v>-2710</v>
+        <v>-16258</v>
       </c>
       <c r="J56">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>48</v>
+        <v>517</v>
       </c>
     </row>
     <row r="57" spans="3:10">
       <c r="C57">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>70</v>
+        <v>341</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="1"/>
-        <v>-1513</v>
+        <v>-26222</v>
       </c>
       <c r="I57">
         <f t="shared" ca="1" si="2"/>
-        <v>-2780</v>
+        <v>-16599</v>
       </c>
       <c r="J57">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>51</v>
+        <v>517</v>
       </c>
     </row>
     <row r="58" spans="3:10">
       <c r="C58">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>69</v>
+        <v>373</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="1"/>
-        <v>-1565</v>
+        <v>-26760</v>
       </c>
       <c r="I58">
         <f t="shared" ca="1" si="2"/>
-        <v>-2849</v>
+        <v>-16972</v>
       </c>
       <c r="J58">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>52</v>
+        <v>538</v>
       </c>
     </row>
     <row r="59" spans="3:10">
       <c r="C59">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>70</v>
+        <v>338</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="1"/>
-        <v>-1617</v>
+        <v>-27293</v>
       </c>
       <c r="I59">
         <f t="shared" ca="1" si="2"/>
-        <v>-2919</v>
+        <v>-17310</v>
       </c>
       <c r="J59">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>52</v>
+        <v>533</v>
       </c>
     </row>
     <row r="60" spans="3:10">
       <c r="C60">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>64</v>
+        <v>366</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="1"/>
-        <v>-1664</v>
+        <v>-27853</v>
       </c>
       <c r="I60">
         <f t="shared" ca="1" si="2"/>
-        <v>-2983</v>
+        <v>-17676</v>
       </c>
       <c r="J60">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>47</v>
+        <v>560</v>
       </c>
     </row>
     <row r="61" spans="3:10">
       <c r="C61">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>63</v>
+        <v>345</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="1"/>
-        <v>-1715</v>
+        <v>-28365</v>
       </c>
       <c r="I61">
         <f t="shared" ca="1" si="2"/>
-        <v>-3046</v>
+        <v>-18021</v>
       </c>
       <c r="J61">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>51</v>
+        <v>512</v>
       </c>
     </row>
     <row r="62" spans="3:10">
       <c r="C62">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>70</v>
+        <v>363</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="1"/>
-        <v>-1762</v>
+        <v>-28903</v>
       </c>
       <c r="I62">
         <f t="shared" ca="1" si="2"/>
-        <v>-3116</v>
+        <v>-18384</v>
       </c>
       <c r="J62">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>47</v>
+        <v>538</v>
       </c>
     </row>
     <row r="63" spans="3:10">
       <c r="C63">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>65</v>
+        <v>363</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="1"/>
-        <v>-1809</v>
+        <v>-29420</v>
       </c>
       <c r="I63">
         <f t="shared" ca="1" si="2"/>
-        <v>-3181</v>
+        <v>-18747</v>
       </c>
       <c r="J63">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>47</v>
+        <v>517</v>
       </c>
     </row>
     <row r="64" spans="3:10">
       <c r="C64">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>70</v>
+        <v>366</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="1"/>
-        <v>-1859</v>
+        <v>-29932</v>
       </c>
       <c r="I64">
         <f t="shared" ca="1" si="2"/>
-        <v>-3251</v>
+        <v>-19113</v>
       </c>
       <c r="J64">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>50</v>
+        <v>512</v>
       </c>
     </row>
     <row r="65" spans="3:10">
       <c r="C65">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>64</v>
+        <v>338</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="1"/>
-        <v>-1911</v>
+        <v>-30444</v>
       </c>
       <c r="I65">
         <f t="shared" ca="1" si="2"/>
-        <v>-3315</v>
+        <v>-19451</v>
       </c>
       <c r="J65">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>52</v>
+        <v>512</v>
       </c>
     </row>
     <row r="66" spans="3:10">
       <c r="C66">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>63</v>
+        <v>345</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="1"/>
-        <v>-1962</v>
+        <v>-30966</v>
       </c>
       <c r="I66">
         <f t="shared" ref="I66:I100" ca="1" si="3">I65-C66</f>
-        <v>-3378</v>
+        <v>-19796</v>
       </c>
       <c r="J66">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>51</v>
+        <v>522</v>
       </c>
     </row>
     <row r="67" spans="3:10">
       <c r="C67">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>63</v>
+        <v>338</v>
       </c>
       <c r="D67">
         <f t="shared" ref="D67:D100" ca="1" si="4">D66-J67</f>
-        <v>-2010</v>
+        <v>-31510</v>
       </c>
       <c r="I67">
         <f t="shared" ca="1" si="3"/>
-        <v>-3441</v>
+        <v>-20134</v>
       </c>
       <c r="J67">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>48</v>
+        <v>544</v>
       </c>
     </row>
     <row r="68" spans="3:10">
       <c r="C68">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>68</v>
+        <v>355</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="4"/>
-        <v>-2010</v>
+        <v>-32038</v>
       </c>
       <c r="I68">
         <f t="shared" ca="1" si="3"/>
-        <v>-3509</v>
+        <v>-20489</v>
       </c>
       <c r="J68">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>0</v>
+        <v>528</v>
       </c>
     </row>
     <row r="69" spans="3:10">
       <c r="C69">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>69</v>
+        <v>370</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="4"/>
-        <v>-2058</v>
+        <v>-32587</v>
       </c>
       <c r="I69">
         <f t="shared" ca="1" si="3"/>
-        <v>-3578</v>
+        <v>-20859</v>
       </c>
       <c r="J69">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>48</v>
+        <v>549</v>
       </c>
     </row>
     <row r="70" spans="3:10">
       <c r="C70">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>67</v>
+        <v>373</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="4"/>
-        <v>-2109</v>
+        <v>-33125</v>
       </c>
       <c r="I70">
         <f t="shared" ca="1" si="3"/>
-        <v>-3645</v>
+        <v>-21232</v>
       </c>
       <c r="J70">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>51</v>
+        <v>538</v>
       </c>
     </row>
     <row r="71" spans="3:10">
       <c r="C71">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>70</v>
+        <v>373</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="4"/>
-        <v>-2157</v>
+        <v>-33663</v>
       </c>
       <c r="I71">
         <f t="shared" ca="1" si="3"/>
-        <v>-3715</v>
+        <v>-21605</v>
       </c>
       <c r="J71">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>48</v>
+        <v>538</v>
       </c>
     </row>
     <row r="72" spans="3:10">
       <c r="C72">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>68</v>
+        <v>359</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="4"/>
-        <v>-2205</v>
+        <v>-34191</v>
       </c>
       <c r="I72">
         <f t="shared" ca="1" si="3"/>
-        <v>-3783</v>
+        <v>-21964</v>
       </c>
       <c r="J72">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>48</v>
+        <v>528</v>
       </c>
     </row>
     <row r="73" spans="3:10">
       <c r="C73">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>67</v>
+        <v>341</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="4"/>
-        <v>-2254</v>
+        <v>-34703</v>
       </c>
       <c r="I73">
         <f t="shared" ca="1" si="3"/>
-        <v>-3850</v>
+        <v>-22305</v>
       </c>
       <c r="J73">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>49</v>
+        <v>512</v>
       </c>
     </row>
     <row r="74" spans="3:10">
       <c r="C74">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>64</v>
+        <v>355</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="4"/>
-        <v>-2303</v>
+        <v>-34703</v>
       </c>
       <c r="I74">
         <f t="shared" ca="1" si="3"/>
-        <v>-3914</v>
+        <v>-22660</v>
       </c>
       <c r="J74">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="3:10">
       <c r="C75">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="4"/>
-        <v>-2351</v>
+        <v>-35209</v>
       </c>
       <c r="I75">
         <f t="shared" ca="1" si="3"/>
-        <v>-3978</v>
+        <v>-22660</v>
       </c>
       <c r="J75">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>48</v>
+        <v>506</v>
       </c>
     </row>
     <row r="76" spans="3:10">
       <c r="C76">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>64</v>
+        <v>341</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="4"/>
-        <v>-2398</v>
+        <v>-35753</v>
       </c>
       <c r="I76">
         <f t="shared" ca="1" si="3"/>
-        <v>-4042</v>
+        <v>-23001</v>
       </c>
       <c r="J76">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>47</v>
+        <v>544</v>
       </c>
     </row>
     <row r="77" spans="3:10">
       <c r="C77">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>68</v>
+        <v>341</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="4"/>
-        <v>-2450</v>
+        <v>-36265</v>
       </c>
       <c r="I77">
         <f t="shared" ca="1" si="3"/>
-        <v>-4110</v>
+        <v>-23342</v>
       </c>
       <c r="J77">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>52</v>
+        <v>512</v>
       </c>
     </row>
     <row r="78" spans="3:10">
       <c r="C78">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>64</v>
+        <v>366</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="4"/>
-        <v>-2501</v>
+        <v>-36787</v>
       </c>
       <c r="I78">
         <f t="shared" ca="1" si="3"/>
-        <v>-4174</v>
+        <v>-23708</v>
       </c>
       <c r="J78">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>51</v>
+        <v>522</v>
       </c>
     </row>
     <row r="79" spans="3:10">
       <c r="C79">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>66</v>
+        <v>348</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="4"/>
-        <v>-2552</v>
+        <v>-37309</v>
       </c>
       <c r="I79">
         <f t="shared" ca="1" si="3"/>
-        <v>-4240</v>
+        <v>-24056</v>
       </c>
       <c r="J79">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>51</v>
+        <v>522</v>
       </c>
     </row>
     <row r="80" spans="3:10">
       <c r="C80">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>63</v>
+        <v>341</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="4"/>
-        <v>-2601</v>
+        <v>-37869</v>
       </c>
       <c r="I80">
         <f t="shared" ca="1" si="3"/>
-        <v>-4303</v>
+        <v>-24397</v>
       </c>
       <c r="J80">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>49</v>
+        <v>560</v>
       </c>
     </row>
     <row r="81" spans="3:10">
       <c r="C81">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>68</v>
+        <v>363</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="4"/>
-        <v>-2651</v>
+        <v>-38381</v>
       </c>
       <c r="I81">
         <f t="shared" ca="1" si="3"/>
-        <v>-4371</v>
+        <v>-24760</v>
       </c>
       <c r="J81">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>50</v>
+        <v>512</v>
       </c>
     </row>
     <row r="82" spans="3:10">
       <c r="C82">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>64</v>
+        <v>341</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="4"/>
-        <v>-2703</v>
+        <v>-38914</v>
       </c>
       <c r="I82">
         <f t="shared" ca="1" si="3"/>
-        <v>-4435</v>
+        <v>-25101</v>
       </c>
       <c r="J82">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>52</v>
+        <v>533</v>
       </c>
     </row>
     <row r="83" spans="3:10">
       <c r="C83">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>68</v>
+        <v>352</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="4"/>
-        <v>-2751</v>
+        <v>-39431</v>
       </c>
       <c r="I83">
         <f t="shared" ca="1" si="3"/>
-        <v>-4503</v>
+        <v>-25453</v>
       </c>
       <c r="J83">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>48</v>
+        <v>517</v>
       </c>
     </row>
     <row r="84" spans="3:10">
       <c r="C84">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>68</v>
+        <v>345</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="4"/>
-        <v>-2803</v>
+        <v>-39964</v>
       </c>
       <c r="I84">
         <f t="shared" ca="1" si="3"/>
-        <v>-4571</v>
+        <v>-25798</v>
       </c>
       <c r="J84">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>52</v>
+        <v>533</v>
       </c>
     </row>
     <row r="85" spans="3:10">
       <c r="C85">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>69</v>
+        <v>366</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="4"/>
-        <v>-2850</v>
+        <v>-40470</v>
       </c>
       <c r="I85">
         <f t="shared" ca="1" si="3"/>
-        <v>-4640</v>
+        <v>-26164</v>
       </c>
       <c r="J85">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>47</v>
+        <v>506</v>
       </c>
     </row>
     <row r="86" spans="3:10">
       <c r="C86">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>69</v>
+        <v>373</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="4"/>
-        <v>-2901</v>
+        <v>-41030</v>
       </c>
       <c r="I86">
         <f t="shared" ca="1" si="3"/>
-        <v>-4709</v>
+        <v>-26537</v>
       </c>
       <c r="J86">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>51</v>
+        <v>560</v>
       </c>
     </row>
     <row r="87" spans="3:10">
       <c r="C87">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>68</v>
+        <v>348</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="4"/>
-        <v>-2950</v>
+        <v>-41584</v>
       </c>
       <c r="I87">
         <f t="shared" ca="1" si="3"/>
-        <v>-4777</v>
+        <v>-26885</v>
       </c>
       <c r="J87">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>49</v>
+        <v>554</v>
       </c>
     </row>
     <row r="88" spans="3:10">
       <c r="C88">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>64</v>
+        <v>359</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="4"/>
-        <v>-2950</v>
+        <v>-42122</v>
       </c>
       <c r="I88">
         <f t="shared" ca="1" si="3"/>
-        <v>-4841</v>
+        <v>-27244</v>
       </c>
       <c r="J88">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>0</v>
+        <v>538</v>
       </c>
     </row>
     <row r="89" spans="3:10">
       <c r="C89">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>68</v>
+        <v>348</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="4"/>
-        <v>-2998</v>
+        <v>-42628</v>
       </c>
       <c r="I89">
         <f t="shared" ca="1" si="3"/>
-        <v>-4909</v>
+        <v>-27592</v>
       </c>
       <c r="J89">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>48</v>
+        <v>506</v>
       </c>
     </row>
     <row r="90" spans="3:10">
       <c r="C90">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>68</v>
+        <v>370</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="4"/>
-        <v>-3048</v>
+        <v>-43140</v>
       </c>
       <c r="I90">
         <f t="shared" ca="1" si="3"/>
-        <v>-4977</v>
+        <v>-27962</v>
       </c>
       <c r="J90">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>50</v>
+        <v>512</v>
       </c>
     </row>
     <row r="91" spans="3:10">
       <c r="C91">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>68</v>
+        <v>366</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="4"/>
-        <v>-3099</v>
+        <v>-43700</v>
       </c>
       <c r="I91">
         <f t="shared" ca="1" si="3"/>
-        <v>-5045</v>
+        <v>-28328</v>
       </c>
       <c r="J91">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>51</v>
+        <v>560</v>
       </c>
     </row>
     <row r="92" spans="3:10">
       <c r="C92">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>64</v>
+        <v>345</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="4"/>
-        <v>-3147</v>
+        <v>-44260</v>
       </c>
       <c r="I92">
         <f t="shared" ca="1" si="3"/>
-        <v>-5109</v>
+        <v>-28673</v>
       </c>
       <c r="J92">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>48</v>
+        <v>560</v>
       </c>
     </row>
     <row r="93" spans="3:10">
       <c r="C93">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>67</v>
+        <v>373</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="4"/>
-        <v>-3195</v>
+        <v>-44772</v>
       </c>
       <c r="I93">
         <f t="shared" ca="1" si="3"/>
-        <v>-5176</v>
+        <v>-29046</v>
       </c>
       <c r="J93">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>48</v>
+        <v>512</v>
       </c>
     </row>
     <row r="94" spans="3:10">
       <c r="C94">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>70</v>
+        <v>348</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="4"/>
-        <v>-3247</v>
+        <v>-45326</v>
       </c>
       <c r="I94">
         <f t="shared" ca="1" si="3"/>
-        <v>-5246</v>
+        <v>-29394</v>
       </c>
       <c r="J94">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>52</v>
+        <v>554</v>
       </c>
     </row>
     <row r="95" spans="3:10">
       <c r="C95">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>66</v>
+        <v>341</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="4"/>
-        <v>-3297</v>
+        <v>-45864</v>
       </c>
       <c r="I95">
         <f t="shared" ca="1" si="3"/>
-        <v>-5312</v>
+        <v>-29735</v>
       </c>
       <c r="J95">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>50</v>
+        <v>538</v>
       </c>
     </row>
     <row r="96" spans="3:10">
       <c r="C96">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>69</v>
+        <v>355</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="4"/>
-        <v>-3347</v>
+        <v>-46408</v>
       </c>
       <c r="I96">
         <f t="shared" ca="1" si="3"/>
-        <v>-5381</v>
+        <v>-30090</v>
       </c>
       <c r="J96">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>50</v>
+        <v>544</v>
       </c>
     </row>
     <row r="97" spans="3:10">
       <c r="C97">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>66</v>
+        <v>370</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="4"/>
-        <v>-3395</v>
+        <v>-46925</v>
       </c>
       <c r="I97">
         <f t="shared" ca="1" si="3"/>
-        <v>-5447</v>
+        <v>-30460</v>
       </c>
       <c r="J97">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>48</v>
+        <v>517</v>
       </c>
     </row>
     <row r="98" spans="3:10">
       <c r="C98">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>70</v>
+        <v>373</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="4"/>
-        <v>-3443</v>
+        <v>-47431</v>
       </c>
       <c r="I98">
         <f t="shared" ca="1" si="3"/>
-        <v>-5517</v>
+        <v>-30833</v>
       </c>
       <c r="J98">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>48</v>
+        <v>506</v>
       </c>
     </row>
     <row r="99" spans="3:10">
       <c r="C99">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>70</v>
+        <v>352</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="4"/>
-        <v>-3491</v>
+        <v>-47953</v>
       </c>
       <c r="I99">
         <f t="shared" ca="1" si="3"/>
-        <v>-5587</v>
+        <v>-31185</v>
       </c>
       <c r="J99">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>48</v>
+        <v>522</v>
       </c>
     </row>
     <row r="100" spans="3:10">
       <c r="C100">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(K8*K8/(B8+K8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (B4*B4/(B4+K5))))</f>
-        <v>65</v>
+        <v>341</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="4"/>
-        <v>-3543</v>
+        <v>-48502</v>
       </c>
       <c r="I100">
         <f t="shared" ca="1" si="3"/>
-        <v>-5652</v>
+        <v>-31526</v>
       </c>
       <c r="J100">
         <f ca="1">INT(IF(RANDBETWEEN(0,100)&lt;(B8*B8/(K8+B8)*0.8),0,1)*(RANDBETWEEN(B10,B11)*0.01 * (K4*K4/(K4+B5))))</f>
-        <v>52</v>
+        <v>549</v>
       </c>
     </row>
   </sheetData>
